--- a/ExerciseLog.xlsx
+++ b/ExerciseLog.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Year2\Web 2\Web2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattt\Desktop\Matt\BIT\Year 2\Web 2\Web2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,48 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
-    <t>Monday</t>
+    <t>Walking</t>
   </si>
   <si>
-    <t>Tuesday</t>
+    <t>Biking</t>
   </si>
   <si>
-    <t>Wednesday</t>
+    <t>Gym</t>
   </si>
   <si>
-    <t>Thursday</t>
+    <t>Friend 1</t>
   </si>
   <si>
-    <t>Friday</t>
+    <t>Friend 2</t>
   </si>
   <si>
-    <t>Saturday</t>
+    <t>Total Minutes This Week</t>
   </si>
   <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Walking (mins)</t>
-  </si>
-  <si>
-    <t>Biking(mins)</t>
-  </si>
-  <si>
-    <t>Gym(mins)</t>
-  </si>
-  <si>
-    <t>Pushups(reps)</t>
-  </si>
-  <si>
-    <t>Situps(reps)</t>
+    <t>Daily Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,9 +86,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +105,5009 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Weekly Exercise</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Walking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2F6-42AB-A286-8EFD743AA1B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Biking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2F6-42AB-A286-8EFD743AA1B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gym</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A2F6-42AB-A286-8EFD743AA1B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="340745856"/>
+        <c:axId val="340740936"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:dateAx>
+        <c:axId val="340745856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340740936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="340740936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340745856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Weekly Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Walking</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Biking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gym</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-978B-44F5-91E0-02724968CCF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Minutes This Week</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$31:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Friend 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Friend 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6CB-4CC7-9E68-0C4F4941183D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="455722776"/>
+        <c:axId val="455725728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="455722776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455725728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="455725728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455722776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Activity Each Day</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Walking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9000-4810-A32C-278427D63128}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Biking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9000-4810-A32C-278427D63128}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gym</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9000-4810-A32C-278427D63128}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="343933168"/>
+        <c:axId val="343933496"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="343933168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343933496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="343933496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343933168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Friend Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Friend 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AF0-44DE-8877-5C009D12B013}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Friend 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1AF0-44DE-8877-5C009D12B013}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="491367856"/>
+        <c:axId val="491367528"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="491367856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491367528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="491367528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491367856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1109661</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -197,6 +5186,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -232,6 +5238,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,63 +5407,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>42658</v>
       </c>
       <c r="B2" s="1">
         <v>90</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1">
-        <v>30</v>
+        <f>SUM(B2:D2)</f>
+        <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>42659</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
@@ -452,15 +5470,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30</v>
+        <f t="shared" ref="E3:E8" si="0">SUM(B3:D3)</f>
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>42660</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
@@ -469,18 +5485,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>42661</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -489,58 +5503,52 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>42662</v>
       </c>
       <c r="B6" s="1">
         <v>60</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>42663</v>
       </c>
       <c r="B7" s="1">
         <v>120</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>42664</v>
       </c>
       <c r="B8" s="1">
         <v>120</v>
@@ -549,17 +5557,424 @@
         <v>20</v>
       </c>
       <c r="D8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>42665</v>
+      </c>
+      <c r="B9" s="1">
+        <f>SUM(B2:B8)</f>
+        <v>540</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUM(C2:C8)</f>
+        <v>130</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUM(D2:D8)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>42666</v>
+      </c>
+      <c r="B10" s="1">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>42667</v>
+      </c>
+      <c r="B11" s="1">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>42668</v>
+      </c>
+      <c r="B12" s="1">
         <v>30</v>
       </c>
-      <c r="F8" s="1">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>42669</v>
+      </c>
+      <c r="B13" s="1">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>42670</v>
+      </c>
+      <c r="B14" s="1">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>42671</v>
+      </c>
+      <c r="B15" s="1">
+        <v>120</v>
+      </c>
+      <c r="C15" s="1">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>42672</v>
+      </c>
+      <c r="B16" s="1">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>42673</v>
+      </c>
+      <c r="B17" s="1">
+        <f>SUM(B10:B16)</f>
+        <v>540</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUM(C10:C16)</f>
+        <v>130</v>
+      </c>
+      <c r="D17" s="1">
+        <f>SUM(D10:D16)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>42658</v>
+      </c>
+      <c r="B20" s="1">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1">
+        <f>SUM(B20:D20)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>42659</v>
+      </c>
+      <c r="B21" s="1">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ref="E21:E26" si="1">SUM(B21:D21)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>42660</v>
+      </c>
+      <c r="B22" s="1">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>42661</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>42662</v>
+      </c>
+      <c r="B24" s="1">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>42663</v>
+      </c>
+      <c r="B25" s="1">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>42664</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <f>SUM(B20:B26)</f>
+        <v>245</v>
+      </c>
+      <c r="C27" s="1">
+        <f>SUM(C20:C26)</f>
+        <v>135</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUM(D20:D26)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <f>SUM(B9:D9)</f>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <f>SUM(B27:D27)</f>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>42658</v>
+      </c>
+      <c r="B36" s="1">
+        <f>SUM(B2:D2)</f>
+        <v>90</v>
+      </c>
+      <c r="C36" s="1">
+        <f>SUM(B20:D20)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>42659</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" ref="B37:B42" si="2">SUM(B3:D3)</f>
+        <v>80</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ref="C37:C42" si="3">SUM(B21:D21)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>42660</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>42661</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>42662</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>42663</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>42664</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>